--- a/Zan2/29_RES2Model_Rodionov.xlsx
+++ b/Zan2/29_RES2Model_Rodionov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Group_122\Aleksey_Rodionov\MathMod\Zan2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C03C40-46C8-4ABE-9FF5-6C44B75826F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43D101E-39F1-42B4-8F16-ED7D9CFB7350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14436" yWindow="1308" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="29_data_122" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="151">
   <si>
     <t>Объем выборки</t>
   </si>
@@ -92,15 +92,9 @@
     <t>Задания, выполненные в программе R</t>
   </si>
   <si>
-    <t>студента Иванова И.И. вариант 101</t>
-  </si>
-  <si>
     <t>Напишите, как получены данные Вашего варианта,  каковы единицы измерения и каков объем данных.</t>
   </si>
   <si>
-    <t>Статистические характеристики для  ________________ ____________(укажите единицы ______________ )</t>
-  </si>
-  <si>
     <t>Названия характеристик</t>
   </si>
   <si>
@@ -119,12 +113,6 @@
     <t>Коэфициент вариации</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; # Начало - указываем рабочую директорию </t>
-  </si>
-  <si>
-    <t>&gt; getwd()</t>
-  </si>
-  <si>
     <t>Родионов Алексей Викторович</t>
   </si>
   <si>
@@ -149,7 +137,358 @@
     <t>вар.29</t>
   </si>
   <si>
-    <t>&gt; setwd ("С:/Group_122/Rodionov/MathMod/Zan2")</t>
+    <t xml:space="preserve"> #Отчет по занятию 2 вариант 29 Родионов</t>
+  </si>
+  <si>
+    <t>&gt; #Указываем рабочую директорию</t>
+  </si>
+  <si>
+    <t>&gt; ##Session – Set working directory – Choose directory.</t>
+  </si>
+  <si>
+    <t>&gt; #Считаем содержимое файла в переменную dat</t>
+  </si>
+  <si>
+    <t>&gt; dat122=read.csv("29_data_122.csv",header=TRUE,sep=";",dec=",")</t>
+  </si>
+  <si>
+    <t>&gt; dat122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NO3 K2O</t>
+  </si>
+  <si>
+    <t>1  4.69   9</t>
+  </si>
+  <si>
+    <t>2  4.54  40</t>
+  </si>
+  <si>
+    <t>3  4.98  54</t>
+  </si>
+  <si>
+    <t>4  4.76  49</t>
+  </si>
+  <si>
+    <t>5  4.80  15</t>
+  </si>
+  <si>
+    <t>6  5.51  42</t>
+  </si>
+  <si>
+    <t>7  5.35  41</t>
+  </si>
+  <si>
+    <t>8  5.32  26</t>
+  </si>
+  <si>
+    <t>9  5.08  25</t>
+  </si>
+  <si>
+    <t>10 5.06  59</t>
+  </si>
+  <si>
+    <t>11 5.18  35</t>
+  </si>
+  <si>
+    <t>12 5.07  12</t>
+  </si>
+  <si>
+    <t>13 5.15  39</t>
+  </si>
+  <si>
+    <t>14 4.67  33</t>
+  </si>
+  <si>
+    <t>15 4.67  26</t>
+  </si>
+  <si>
+    <t>16 4.77  26</t>
+  </si>
+  <si>
+    <t>17 5.12  11</t>
+  </si>
+  <si>
+    <t>18 5.28  19</t>
+  </si>
+  <si>
+    <t>19 4.76  37</t>
+  </si>
+  <si>
+    <t>20 5.03  18</t>
+  </si>
+  <si>
+    <t>21 5.03  34</t>
+  </si>
+  <si>
+    <t>22 4.96  23</t>
+  </si>
+  <si>
+    <t>23 4.82  42</t>
+  </si>
+  <si>
+    <t>24 5.90  20</t>
+  </si>
+  <si>
+    <t>25 4.88  75</t>
+  </si>
+  <si>
+    <t>26 4.58  25</t>
+  </si>
+  <si>
+    <t>27 4.61  19</t>
+  </si>
+  <si>
+    <t>28 5.02  27</t>
+  </si>
+  <si>
+    <t>29 5.18  20</t>
+  </si>
+  <si>
+    <t>30 4.97  18</t>
+  </si>
+  <si>
+    <t>31 5.14  20</t>
+  </si>
+  <si>
+    <t>32 4.60  17</t>
+  </si>
+  <si>
+    <t>33 4.67  22</t>
+  </si>
+  <si>
+    <t>34 5.45  32</t>
+  </si>
+  <si>
+    <t>35 5.37  32</t>
+  </si>
+  <si>
+    <t>36 5.42  37</t>
+  </si>
+  <si>
+    <t>37 5.45  17</t>
+  </si>
+  <si>
+    <t>38 5.47  12</t>
+  </si>
+  <si>
+    <t>39 5.27  19</t>
+  </si>
+  <si>
+    <t>40 4.99  13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; ##Смотрим размерность таблицы </t>
+  </si>
+  <si>
+    <t>&gt; dim(dat122)</t>
+  </si>
+  <si>
+    <t>[1] 40  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; #Узнаем имена переменных </t>
+  </si>
+  <si>
+    <t>&gt; names(dat122)</t>
+  </si>
+  <si>
+    <t>[1] "NO3" "K2O"</t>
+  </si>
+  <si>
+    <t>&gt; str(dat122)</t>
+  </si>
+  <si>
+    <t>'data.frame':</t>
+  </si>
+  <si>
+    <t>40 obs. of  2 variables:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ NO3: num  4.69 4.54 4.98 4.76 4.8 5.51 5.35 5.32 5.08 5.06 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ K2O: int  9 40 54 49 15 42 41 26 25 59 ...</t>
+  </si>
+  <si>
+    <t>&gt; ##Выведем две переменные - содержание NO3 и  K2O</t>
+  </si>
+  <si>
+    <t>&gt; dat122$NO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] 4.69 4.54 4.98 4.76 4.80 5.51 5.35 5.32 5.08 5.06 5.18 5.07 5.15 4.67 4.67 4.77 5.12 5.28 4.76 5.03 5.03</t>
+  </si>
+  <si>
+    <t>[22] 4.96 4.82 5.90 4.88 4.58 4.61 5.02 5.18 4.97 5.14 4.60 4.67 5.45 5.37 5.42 5.45 5.47 5.27 4.99</t>
+  </si>
+  <si>
+    <t>&gt; dat122$K2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1]  9 40 54 49 15 42 41 26 25 59 35 12 39 33 26 26 11 19 37 18 34 23 42 20 75 25 19 27 20 18 20 17 22 32 32</t>
+  </si>
+  <si>
+    <t>[36] 37 17 12 19 13</t>
+  </si>
+  <si>
+    <t>&gt; #length(x) - функция измерения длины вектора</t>
+  </si>
+  <si>
+    <t>&gt; length(dat122$NO3)</t>
+  </si>
+  <si>
+    <t>[1] 40</t>
+  </si>
+  <si>
+    <t>&gt; length(dat122$K2O)</t>
+  </si>
+  <si>
+    <t>&gt; # выведем тип переменной</t>
+  </si>
+  <si>
+    <t>&gt; mode(dat122$NO3)</t>
+  </si>
+  <si>
+    <t>[1] "numeric"</t>
+  </si>
+  <si>
+    <t>&gt; mode(dat122$K2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; </t>
+  </si>
+  <si>
+    <t>&gt; min(dat122$NO3)</t>
+  </si>
+  <si>
+    <t>[1] 4.54</t>
+  </si>
+  <si>
+    <t>&gt; min(dat122$K2O)</t>
+  </si>
+  <si>
+    <t>[1] 9</t>
+  </si>
+  <si>
+    <t>&gt; max(dat122$NO3)</t>
+  </si>
+  <si>
+    <t>[1] 5.9</t>
+  </si>
+  <si>
+    <t>&gt; max(dat122$K2O)</t>
+  </si>
+  <si>
+    <t>[1] 75</t>
+  </si>
+  <si>
+    <t>&gt; # посчитаем дисперсию</t>
+  </si>
+  <si>
+    <t>&gt; varNO3=var(dat122$NO3);varNO3</t>
+  </si>
+  <si>
+    <t>[1] 0.09854045</t>
+  </si>
+  <si>
+    <t>&gt; varK2O=var(dat122$K2O);varK2O</t>
+  </si>
+  <si>
+    <t>[1] 203.3846</t>
+  </si>
+  <si>
+    <t>&gt; #среднее арифметическое сохраним в переменную mNO3</t>
+  </si>
+  <si>
+    <t>&gt; mNO3=mean(dat122$NO3);mNO3</t>
+  </si>
+  <si>
+    <t>[1] 5.03925</t>
+  </si>
+  <si>
+    <t>&gt; mK2O=mean(dat122$K2O);mK2O</t>
+  </si>
+  <si>
+    <t>[1] 28.5</t>
+  </si>
+  <si>
+    <t>&gt; #стандартное отклонение сохраним в переменную s</t>
+  </si>
+  <si>
+    <t>&gt; sNO3=sd(dat122$NO3);sNO3</t>
+  </si>
+  <si>
+    <t>[1] 0.3139115</t>
+  </si>
+  <si>
+    <t>&gt; sK2O=sd(dat122$K2O);sK2O</t>
+  </si>
+  <si>
+    <t>[1] 14.2613</t>
+  </si>
+  <si>
+    <t>&gt; #посчитаем коэффициент вариации</t>
+  </si>
+  <si>
+    <t>&gt; vNO3=100*sNO3/mNO3;vNO3</t>
+  </si>
+  <si>
+    <t>[1] 6.22933</t>
+  </si>
+  <si>
+    <t>&gt; vK2O=100*sK2O/mK2O;vK2O</t>
+  </si>
+  <si>
+    <t>[1] 50.03964</t>
+  </si>
+  <si>
+    <t>Данные представляют собой результаты обследования сельскохозяйственных угодий (дерново-подзолистые почвы, Московская почва). Пробоотбор производился буром из пахотного горизонта. На угодье были отобраны 40 индивидуальных проб, в которых было определено NO3 (мг/100г) и K2O (ppm).</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>мг/100г</t>
+  </si>
+  <si>
+    <t>число</t>
+  </si>
+  <si>
+    <t>мг/100г^2</t>
+  </si>
+  <si>
+    <t>Статистические характеристики для  NO3 (укажите единицы: число для объема выборки; мг/100г для объема выборки, среднего, стандартного отклонения; мг/100г^2 (для дисперсии); % для коэффициента вариации).</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>ppm^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объём выборка говорит о точности измерений. Чем больше объем выборки, тем точнее можно описать ситуацию на объекте исследования </t>
+  </si>
+  <si>
+    <t>Коэффициент вариации это отношение стандартного отклонения к среднему. Если среднее близко к нулю, то коэффициент вариации не рассчитывают.</t>
+  </si>
+  <si>
+    <t>Дисперсия это сумма квадратов центральных отклонений (разности между значением и средним арифметическим) деленная на объем выборки минус 1. Измеряется в квадратах единицы измерения измеряемо выборки.</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение это квадратный корень дисперсии. Измеряется в единицах измерения измеряемых данных.</t>
+  </si>
+  <si>
+    <t>Коэффициент вариации обычно округляется до целых (если считается в процентах). Точность вычисления оценок параметров распределения на один знак больше, чем у исходных данных.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мерами разброса называют те величины, которые характеризуют варьирования случайной величины. В качестве мер разброса можно использовать дисперсию, стандартное отклонение, ошибку среднего и коэффициент вариации. </t>
+  </si>
+  <si>
+    <t>студента Родионова А. вариант 29</t>
+  </si>
+  <si>
+    <t>Статистические характеристики для  K2O (укажите единицы укажите единицы: число для объема выборки; мг/100г для среднего, стандартного отклонения; мг/100г^2 (для дисперсии); % для коэффициента вариации )</t>
   </si>
 </sst>
 </file>
@@ -160,7 +499,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,18 +575,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -255,10 +582,28 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -361,24 +706,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -520,142 +847,140 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,17 +1272,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>4.6900000000000004</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="43">
         <v>9</v>
       </c>
     </row>
@@ -965,7 +1290,7 @@
       <c r="A3" s="6">
         <v>4.54</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="43">
         <v>40</v>
       </c>
     </row>
@@ -973,7 +1298,7 @@
       <c r="A4" s="6">
         <v>4.9800000000000004</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="43">
         <v>54</v>
       </c>
     </row>
@@ -981,7 +1306,7 @@
       <c r="A5" s="6">
         <v>4.76</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="43">
         <v>49</v>
       </c>
     </row>
@@ -989,7 +1314,7 @@
       <c r="A6" s="6">
         <v>4.8</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="43">
         <v>15</v>
       </c>
     </row>
@@ -997,7 +1322,7 @@
       <c r="A7" s="6">
         <v>5.51</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="43">
         <v>42</v>
       </c>
     </row>
@@ -1005,7 +1330,7 @@
       <c r="A8" s="6">
         <v>5.35</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="43">
         <v>41</v>
       </c>
     </row>
@@ -1013,7 +1338,7 @@
       <c r="A9" s="6">
         <v>5.32</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="43">
         <v>26</v>
       </c>
     </row>
@@ -1021,7 +1346,7 @@
       <c r="A10" s="6">
         <v>5.08</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="43">
         <v>25</v>
       </c>
     </row>
@@ -1029,7 +1354,7 @@
       <c r="A11" s="6">
         <v>5.0599999999999996</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="43">
         <v>59</v>
       </c>
     </row>
@@ -1037,7 +1362,7 @@
       <c r="A12" s="6">
         <v>5.18</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="43">
         <v>35</v>
       </c>
     </row>
@@ -1045,7 +1370,7 @@
       <c r="A13" s="6">
         <v>5.07</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="43">
         <v>12</v>
       </c>
     </row>
@@ -1053,7 +1378,7 @@
       <c r="A14" s="6">
         <v>5.15</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="43">
         <v>39</v>
       </c>
     </row>
@@ -1061,7 +1386,7 @@
       <c r="A15" s="6">
         <v>4.67</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="43">
         <v>33</v>
       </c>
     </row>
@@ -1069,7 +1394,7 @@
       <c r="A16" s="6">
         <v>4.67</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="43">
         <v>26</v>
       </c>
     </row>
@@ -1077,7 +1402,7 @@
       <c r="A17" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="43">
         <v>26</v>
       </c>
     </row>
@@ -1085,7 +1410,7 @@
       <c r="A18" s="6">
         <v>5.12</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="43">
         <v>11</v>
       </c>
     </row>
@@ -1093,7 +1418,7 @@
       <c r="A19" s="6">
         <v>5.28</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="43">
         <v>19</v>
       </c>
     </row>
@@ -1101,7 +1426,7 @@
       <c r="A20" s="6">
         <v>4.76</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="43">
         <v>37</v>
       </c>
     </row>
@@ -1109,7 +1434,7 @@
       <c r="A21" s="6">
         <v>5.03</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="43">
         <v>18</v>
       </c>
     </row>
@@ -1117,7 +1442,7 @@
       <c r="A22" s="6">
         <v>5.03</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="43">
         <v>34</v>
       </c>
     </row>
@@ -1125,7 +1450,7 @@
       <c r="A23" s="6">
         <v>4.96</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23" s="43">
         <v>23</v>
       </c>
     </row>
@@ -1133,7 +1458,7 @@
       <c r="A24" s="6">
         <v>4.82</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="43">
         <v>42</v>
       </c>
     </row>
@@ -1141,7 +1466,7 @@
       <c r="A25" s="6">
         <v>5.9</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="43">
         <v>20</v>
       </c>
     </row>
@@ -1149,7 +1474,7 @@
       <c r="A26" s="6">
         <v>4.88</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="43">
         <v>75</v>
       </c>
     </row>
@@ -1157,7 +1482,7 @@
       <c r="A27" s="6">
         <v>4.58</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="43">
         <v>25</v>
       </c>
     </row>
@@ -1165,7 +1490,7 @@
       <c r="A28" s="6">
         <v>4.6100000000000003</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="43">
         <v>19</v>
       </c>
     </row>
@@ -1173,7 +1498,7 @@
       <c r="A29" s="6">
         <v>5.0199999999999996</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="43">
         <v>27</v>
       </c>
     </row>
@@ -1181,7 +1506,7 @@
       <c r="A30" s="6">
         <v>5.18</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="43">
         <v>20</v>
       </c>
     </row>
@@ -1189,7 +1514,7 @@
       <c r="A31" s="6">
         <v>4.97</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31" s="43">
         <v>18</v>
       </c>
     </row>
@@ -1197,7 +1522,7 @@
       <c r="A32" s="6">
         <v>5.14</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="43">
         <v>20</v>
       </c>
     </row>
@@ -1205,7 +1530,7 @@
       <c r="A33" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33" s="43">
         <v>17</v>
       </c>
     </row>
@@ -1213,7 +1538,7 @@
       <c r="A34" s="6">
         <v>4.67</v>
       </c>
-      <c r="B34" s="50">
+      <c r="B34" s="43">
         <v>22</v>
       </c>
     </row>
@@ -1221,7 +1546,7 @@
       <c r="A35" s="6">
         <v>5.45</v>
       </c>
-      <c r="B35" s="50">
+      <c r="B35" s="43">
         <v>32</v>
       </c>
     </row>
@@ -1229,7 +1554,7 @@
       <c r="A36" s="6">
         <v>5.37</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36" s="43">
         <v>32</v>
       </c>
     </row>
@@ -1237,7 +1562,7 @@
       <c r="A37" s="6">
         <v>5.42</v>
       </c>
-      <c r="B37" s="50">
+      <c r="B37" s="43">
         <v>37</v>
       </c>
     </row>
@@ -1245,7 +1570,7 @@
       <c r="A38" s="6">
         <v>5.45</v>
       </c>
-      <c r="B38" s="50">
+      <c r="B38" s="43">
         <v>17</v>
       </c>
     </row>
@@ -1253,7 +1578,7 @@
       <c r="A39" s="6">
         <v>5.47</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39" s="43">
         <v>12</v>
       </c>
     </row>
@@ -1261,7 +1586,7 @@
       <c r="A40" s="6">
         <v>5.27</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="43">
         <v>19</v>
       </c>
     </row>
@@ -1269,7 +1594,7 @@
       <c r="A41" s="6">
         <v>4.99</v>
       </c>
-      <c r="B41" s="50">
+      <c r="B41" s="43">
         <v>13</v>
       </c>
     </row>
@@ -1283,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1310,13 +1635,13 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1336,11 +1661,11 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
+        <v>26</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="12"/>
       <c r="S6" s="14"/>
     </row>
@@ -1348,11 +1673,11 @@
       <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>32</v>
+      <c r="B7" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="4"/>
       <c r="S7" s="14"/>
@@ -1364,11 +1689,11 @@
       <c r="B8" s="6">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="43">
         <v>9</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="G8" s="46"/>
+      <c r="G8" s="40"/>
       <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1378,11 +1703,11 @@
       <c r="B9" s="6">
         <v>4.54</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="43">
         <v>40</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="40"/>
       <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1392,11 +1717,11 @@
       <c r="B10" s="6">
         <v>4.9800000000000004</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="43">
         <v>54</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="40"/>
       <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1406,11 +1731,11 @@
       <c r="B11" s="6">
         <v>4.76</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="43">
         <v>49</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="40"/>
       <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1420,11 +1745,11 @@
       <c r="B12" s="6">
         <v>4.8</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="43">
         <v>15</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="40"/>
       <c r="S12" s="14"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1434,11 +1759,11 @@
       <c r="B13" s="6">
         <v>5.51</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="43">
         <v>42</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="40"/>
       <c r="S13" s="14"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1448,11 +1773,11 @@
       <c r="B14" s="6">
         <v>5.35</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="43">
         <v>41</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="G14" s="46"/>
+      <c r="G14" s="40"/>
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1462,11 +1787,11 @@
       <c r="B15" s="6">
         <v>5.32</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="43">
         <v>26</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="40"/>
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1476,11 +1801,11 @@
       <c r="B16" s="6">
         <v>5.08</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="43">
         <v>25</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="40"/>
       <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1490,11 +1815,11 @@
       <c r="B17" s="6">
         <v>5.0599999999999996</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="43">
         <v>59</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="40"/>
       <c r="S17" s="14"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1504,11 +1829,11 @@
       <c r="B18" s="6">
         <v>5.18</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="43">
         <v>35</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="40"/>
       <c r="S18" s="14"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1518,11 +1843,11 @@
       <c r="B19" s="6">
         <v>5.07</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="43">
         <v>12</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="40"/>
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1532,11 +1857,11 @@
       <c r="B20" s="6">
         <v>5.15</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="43">
         <v>39</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="40"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1546,11 +1871,11 @@
       <c r="B21" s="6">
         <v>4.67</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="43">
         <v>33</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="G21" s="46"/>
+      <c r="G21" s="40"/>
       <c r="S21" s="14"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -1560,11 +1885,11 @@
       <c r="B22" s="6">
         <v>4.67</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="43">
         <v>26</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="G22" s="46"/>
+      <c r="G22" s="40"/>
       <c r="S22" s="14"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -1574,11 +1899,11 @@
       <c r="B23" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="43">
         <v>26</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="G23" s="46"/>
+      <c r="G23" s="40"/>
       <c r="S23" s="14"/>
     </row>
     <row r="24" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1588,11 +1913,11 @@
       <c r="B24" s="6">
         <v>5.12</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="43">
         <v>11</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="G24" s="46"/>
+      <c r="G24" s="40"/>
       <c r="S24" s="14"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -1602,11 +1927,11 @@
       <c r="B25" s="6">
         <v>5.28</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="43">
         <v>19</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="G25" s="46"/>
+      <c r="G25" s="40"/>
       <c r="S25" s="14"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -1616,11 +1941,11 @@
       <c r="B26" s="6">
         <v>4.76</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="43">
         <v>37</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="G26" s="46"/>
+      <c r="G26" s="40"/>
       <c r="S26" s="14"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -1630,11 +1955,11 @@
       <c r="B27" s="6">
         <v>5.03</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="43">
         <v>18</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="G27" s="46"/>
+      <c r="G27" s="40"/>
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -1644,11 +1969,11 @@
       <c r="B28" s="6">
         <v>5.03</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="43">
         <v>34</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="G28" s="46"/>
+      <c r="G28" s="40"/>
       <c r="S28" s="14"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -1658,11 +1983,11 @@
       <c r="B29" s="6">
         <v>4.96</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="43">
         <v>23</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="G29" s="46"/>
+      <c r="G29" s="40"/>
       <c r="S29" s="14"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -1672,11 +1997,11 @@
       <c r="B30" s="6">
         <v>4.82</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="43">
         <v>42</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="G30" s="46"/>
+      <c r="G30" s="40"/>
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -1686,11 +2011,11 @@
       <c r="B31" s="6">
         <v>5.9</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="43">
         <v>20</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="G31" s="46"/>
+      <c r="G31" s="40"/>
       <c r="S31" s="14"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -1700,11 +2025,11 @@
       <c r="B32" s="6">
         <v>4.88</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="43">
         <v>75</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="G32" s="46"/>
+      <c r="G32" s="40"/>
       <c r="S32" s="14"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -1714,11 +2039,11 @@
       <c r="B33" s="6">
         <v>4.58</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="43">
         <v>25</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="G33" s="46"/>
+      <c r="G33" s="40"/>
       <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -1728,11 +2053,11 @@
       <c r="B34" s="6">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="43">
         <v>19</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="G34" s="46"/>
+      <c r="G34" s="40"/>
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -1742,11 +2067,11 @@
       <c r="B35" s="6">
         <v>5.0199999999999996</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="43">
         <v>27</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="G35" s="46"/>
+      <c r="G35" s="40"/>
       <c r="S35" s="14"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -1756,11 +2081,11 @@
       <c r="B36" s="6">
         <v>5.18</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="43">
         <v>20</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="G36" s="46"/>
+      <c r="G36" s="40"/>
       <c r="S36" s="14"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -1770,11 +2095,11 @@
       <c r="B37" s="6">
         <v>4.97</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="43">
         <v>18</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="G37" s="46"/>
+      <c r="G37" s="40"/>
       <c r="S37" s="14"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -1784,11 +2109,11 @@
       <c r="B38" s="6">
         <v>5.14</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="43">
         <v>20</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="G38" s="46"/>
+      <c r="G38" s="40"/>
       <c r="S38" s="14"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -1798,11 +2123,11 @@
       <c r="B39" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="43">
         <v>17</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="G39" s="46"/>
+      <c r="G39" s="40"/>
       <c r="S39" s="14"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -1812,11 +2137,11 @@
       <c r="B40" s="6">
         <v>4.67</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="43">
         <v>22</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="G40" s="46"/>
+      <c r="G40" s="40"/>
       <c r="S40" s="14"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -1826,11 +2151,11 @@
       <c r="B41" s="6">
         <v>5.45</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="43">
         <v>32</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="G41" s="46"/>
+      <c r="G41" s="40"/>
       <c r="S41" s="14"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -1840,11 +2165,11 @@
       <c r="B42" s="6">
         <v>5.37</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="43">
         <v>32</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="G42" s="46"/>
+      <c r="G42" s="40"/>
       <c r="S42" s="14"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -1854,11 +2179,11 @@
       <c r="B43" s="6">
         <v>5.42</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="43">
         <v>37</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="G43" s="46"/>
+      <c r="G43" s="40"/>
       <c r="S43" s="14"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -1868,11 +2193,11 @@
       <c r="B44" s="6">
         <v>5.45</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="43">
         <v>17</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="G44" s="46"/>
+      <c r="G44" s="40"/>
       <c r="S44" s="14"/>
     </row>
     <row r="45" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1882,11 +2207,11 @@
       <c r="B45" s="6">
         <v>5.47</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="43">
         <v>12</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="G45" s="46"/>
+      <c r="G45" s="40"/>
       <c r="S45" s="14"/>
     </row>
     <row r="46" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,11 +2221,11 @@
       <c r="B46" s="6">
         <v>5.27</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="43">
         <v>19</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="G46" s="46"/>
+      <c r="G46" s="40"/>
       <c r="S46" s="14"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -1910,18 +2235,18 @@
       <c r="B47" s="6">
         <v>4.99</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="43">
         <v>13</v>
       </c>
       <c r="E47" s="7"/>
-      <c r="G47" s="46"/>
+      <c r="G47" s="40"/>
       <c r="S47" s="14"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="45"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="47"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="7"/>
       <c r="S48" s="14"/>
     </row>
@@ -1933,7 +2258,7 @@
         <f>COUNT(B8:B47)</f>
         <v>40</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="9">
         <f t="shared" ref="D49" si="0">COUNT(D8:D47)</f>
         <v>40</v>
@@ -1944,12 +2269,12 @@
       <c r="A50" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="51">
+      <c r="B50" s="44">
         <f>AVERAGE(B8:B47)</f>
         <v>5.0392500000000009</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="51">
+      <c r="C50" s="48"/>
+      <c r="D50" s="58">
         <f>AVERAGE(D8:D47)</f>
         <v>28.5</v>
       </c>
@@ -1959,28 +2284,28 @@
       <c r="A51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="52">
+      <c r="B51" s="45">
         <f>_xlfn.VAR.S(B8:B47)</f>
         <v>9.8540448717948717E-2</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="52">
+      <c r="C51" s="49"/>
+      <c r="D51" s="59">
         <f>_xlfn.VAR.S(D8:D47)</f>
         <v>203.38461538461539</v>
       </c>
-      <c r="F51" s="46"/>
+      <c r="F51" s="40"/>
       <c r="S51" s="14"/>
     </row>
     <row r="52" spans="1:19" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="52">
+      <c r="B52" s="45">
         <f>_xlfn.STDEV.S(B8:B47)</f>
         <v>0.3139115300812455</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="52">
+      <c r="C52" s="49"/>
+      <c r="D52" s="59">
         <f t="shared" ref="D52" si="1">_xlfn.STDEV.S(D8:D47)</f>
         <v>14.261297815578194</v>
       </c>
@@ -1990,12 +2315,12 @@
       <c r="A53" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="53">
+      <c r="B53" s="46">
         <f>B52/B50*100%</f>
         <v>6.2293303583121587E-2</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="53">
+      <c r="C53" s="50"/>
+      <c r="D53" s="46">
         <f>D52/D50*100%</f>
         <v>0.50039641458169104</v>
       </c>
@@ -2067,22 +2392,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="E1" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -2095,7 +2420,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -2103,7 +2428,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2111,152 +2436,570 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="61"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="61"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="61"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="61"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-    </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-    </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-    </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-    </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-    </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-    </row>
-    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-    </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-    </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-    </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
-    </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-    </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-    </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-    </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-    </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-    </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-    </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-    </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-    </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-    </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-    </row>
-    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-    </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
-    </row>
-    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="61"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="61"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="61"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="61"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="61"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="61"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="61"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="61"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="61"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="61"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="61"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="61"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="61"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="61"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="61"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="61"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="61"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="61"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="61"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="61"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="61"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="61"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="61"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="61"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="61"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="61"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="61"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="61"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="61"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="61"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="61"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="61"/>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="61"/>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="61"/>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="61"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="61"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="61"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2266,10 +3009,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="B43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,249 +3023,389 @@
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
-        <v>1</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:32" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+    </row>
+    <row r="7" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="30"/>
+    </row>
+    <row r="9" spans="1:32" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>2</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:32" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
-        <v>2</v>
-      </c>
-      <c r="B9" s="61" t="s">
+      <c r="C11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="52">
+        <v>40</v>
+      </c>
+      <c r="D12" s="51">
+        <v>40</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="63"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="66">
+        <v>5.0392500000000009</v>
+      </c>
+      <c r="D13" s="52">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="63"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
+    <row r="14" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="38" t="s">
+      <c r="C14" s="66">
+        <v>9.8540448717948717E-2</v>
+      </c>
+      <c r="D14" s="52">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+    </row>
+    <row r="15" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="66">
+        <v>0.3139115300812455</v>
+      </c>
+      <c r="D15" s="52">
+        <v>0.314</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="51">
+        <v>6</v>
+      </c>
+      <c r="D16" s="51">
+        <v>6</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+    </row>
+    <row r="18" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="18" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
-        <v>3</v>
-      </c>
-      <c r="B18" s="61" t="s">
+      <c r="D20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-    </row>
-    <row r="19" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="C21" s="52">
+        <v>40</v>
+      </c>
+      <c r="D21" s="52">
+        <v>40</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="63"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="C22" s="52">
+        <v>28.5</v>
+      </c>
+      <c r="D22" s="52">
+        <v>28.5</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="63"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="C23" s="64">
+        <v>203.38461538461539</v>
+      </c>
+      <c r="D23" s="64">
+        <v>203.38461538461539</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="64">
+        <v>14.261297815578194</v>
+      </c>
+      <c r="D24" s="64">
+        <v>14.261297815578194</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="65">
+        <v>50</v>
+      </c>
+      <c r="D25" s="65">
+        <v>50</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
@@ -2560,32 +3443,34 @@
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
+      <c r="B29" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69"/>
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="72"/>
       <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -2622,7 +3507,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2637,24 +3522,29 @@
       <c r="L33" s="20"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+    </row>
+    <row r="35" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="72"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="73"/>
       <c r="D35" s="73"/>
       <c r="E35" s="73"/>
@@ -2664,25 +3554,31 @@
       <c r="I35" s="73"/>
       <c r="J35" s="73"/>
       <c r="K35" s="73"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+    </row>
+    <row r="36" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="14"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+    </row>
+    <row r="37" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2697,7 +3593,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>3</v>
       </c>
@@ -2716,7 +3612,7 @@
       <c r="L38" s="19"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2731,52 +3627,90 @@
       <c r="L39" s="19"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="14"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+    </row>
+    <row r="41" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+    </row>
+    <row r="42" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+    </row>
+    <row r="43" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2791,7 +3725,7 @@
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2806,7 +3740,7 @@
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>4</v>
       </c>
@@ -2825,7 +3759,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -2840,52 +3774,54 @@
       <c r="L46" s="23"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
+      <c r="B47" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2900,7 +3836,7 @@
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2915,7 +3851,7 @@
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>5</v>
       </c>
@@ -2934,7 +3870,7 @@
       <c r="L52" s="19"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -2949,67 +3885,89 @@
       <c r="L53" s="19"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+    </row>
+    <row r="55" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="14"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+    </row>
+    <row r="56" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="14"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+    </row>
+    <row r="57" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+    </row>
+    <row r="58" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3024,7 +3982,7 @@
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>6</v>
       </c>
@@ -3043,7 +4001,7 @@
       <c r="L59" s="19"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -3058,62 +4016,104 @@
       <c r="L60" s="19"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="14"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="14"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="14"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="14"/>
+      <c r="B61" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73"/>
+    </row>
+    <row r="62" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="73"/>
+      <c r="W62" s="73"/>
+    </row>
+    <row r="63" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
+      <c r="V63" s="73"/>
+      <c r="W63" s="73"/>
+    </row>
+    <row r="64" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="73"/>
+      <c r="U64" s="73"/>
+      <c r="V64" s="73"/>
+      <c r="W64" s="73"/>
     </row>
     <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="19"/>
@@ -3259,16 +4259,17 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B61:W64"/>
     <mergeCell ref="B47:L49"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B6:L7"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B61:L64"/>
     <mergeCell ref="B29:L30"/>
-    <mergeCell ref="B34:L36"/>
-    <mergeCell ref="B54:L57"/>
-    <mergeCell ref="B40:L42"/>
+    <mergeCell ref="B6:AF7"/>
+    <mergeCell ref="B34:P36"/>
+    <mergeCell ref="B40:Y42"/>
+    <mergeCell ref="B54:R57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>